--- a/data/trans_orig/P56S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56S2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAFD7050-EAC2-4D61-A388-86252AB02971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA939C0C-3C59-401F-90EC-76DE4DB61E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{668D5576-BB04-44F8-A59F-2224E3C83497}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{610F9D71-C6FC-44E9-8E6B-F9678FBFB562}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="383">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,06%)</t>
   </si>
@@ -431,13 +431,13 @@
     <t>9,79%</t>
   </si>
   <si>
-    <t>47,34%</t>
+    <t>47,69%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>33,76%</t>
+    <t>34,31%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -446,745 +446,742 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>56,42%</t>
+    <t>57,89%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>28,78%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>55,52%</t>
+    <t>55,44%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>37,02%</t>
+    <t>36,65%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>42,32%</t>
+    <t>42,27%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>25,74%</t>
+    <t>26,46%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>59,38%</t>
+    <t>58,78%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>71,62%</t>
+    <t>71,76%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>5,99%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>52,66%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>11,14%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>2,77%</t>
@@ -1602,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6A0E74-928A-411B-826D-C39E3FEB62CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4965C852-E20C-43D2-A933-7936561D6718}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3661,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650F2929-ADCC-4F3B-BF2D-FF0A3BBAF485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F5452A-99B6-4020-BCB0-F31E7C5E6E48}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5820,7 +5817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0E319E-3B5C-42BF-8EA5-A1D12C618B9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD05B7E-3F06-404F-B9A0-6CFBF72159EB}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7919,7 +7916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3309AB2-2B98-44A5-B36C-FCE3CA57CD81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36F964F-0555-4708-8D1C-329F11F47270}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8079,7 +8076,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8106,13 @@
         <v>437</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -8124,13 +8121,13 @@
         <v>437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8142,13 @@
         <v>361</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8166,7 +8163,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8175,13 +8172,13 @@
         <v>361</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,13 +8193,13 @@
         <v>12485</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
@@ -8211,13 +8208,13 @@
         <v>41382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -8226,13 +8223,13 @@
         <v>53867</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,13 +8244,13 @@
         <v>6980</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -8262,13 +8259,13 @@
         <v>20285</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -8277,13 +8274,13 @@
         <v>27264</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8472,7 +8469,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8744,7 +8741,7 @@
         <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8759,13 +8756,13 @@
         <v>2803</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -8774,13 +8771,13 @@
         <v>4941</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -8789,13 +8786,13 @@
         <v>7743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,13 +8822,13 @@
         <v>620</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -8840,13 +8837,13 @@
         <v>620</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8861,13 +8858,13 @@
         <v>1957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -8876,13 +8873,13 @@
         <v>1176</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -8891,13 +8888,13 @@
         <v>3133</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8912,13 +8909,13 @@
         <v>2334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -8927,13 +8924,13 @@
         <v>637</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -8942,13 +8939,13 @@
         <v>2971</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8999,7 +8996,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,7 +9100,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9154,7 +9151,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9205,7 +9202,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9235,7 +9232,7 @@
         <v>1084</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
@@ -9250,13 +9247,13 @@
         <v>1084</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9286,7 +9283,7 @@
         <v>481</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
@@ -9301,13 +9298,13 @@
         <v>481</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9337,13 +9334,13 @@
         <v>655</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -9352,13 +9349,13 @@
         <v>655</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9373,7 +9370,7 @@
         <v>1265</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
@@ -9403,13 +9400,13 @@
         <v>1265</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9424,7 +9421,7 @@
         <v>936</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
@@ -9454,13 +9451,13 @@
         <v>936</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9511,7 +9508,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9579,13 +9576,13 @@
         <v>777</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9594,13 +9591,13 @@
         <v>1943</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -9609,7 +9606,7 @@
         <v>2720</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>328</v>
@@ -9687,7 +9684,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -9696,13 +9693,13 @@
         <v>583</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -9711,13 +9708,13 @@
         <v>944</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9732,13 +9729,13 @@
         <v>15373</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>103</v>
+        <v>343</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H37" s="7">
         <v>94</v>
@@ -9747,13 +9744,13 @@
         <v>48382</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M37" s="7">
         <v>117</v>
@@ -9762,13 +9759,13 @@
         <v>63754</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9783,13 +9780,13 @@
         <v>9783</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H38" s="7">
         <v>46</v>
@@ -9798,13 +9795,13 @@
         <v>25707</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M38" s="7">
         <v>62</v>
@@ -9813,13 +9810,13 @@
         <v>35489</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9834,13 +9831,13 @@
         <v>688</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="H39" s="7">
         <v>8</v>
@@ -9849,13 +9846,13 @@
         <v>4913</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -9864,13 +9861,13 @@
         <v>5601</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9885,13 +9882,13 @@
         <v>11968</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H40" s="7">
         <v>45</v>
@@ -9903,10 +9900,10 @@
         <v>103</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="M40" s="7">
         <v>63</v>
@@ -9951,13 +9948,13 @@
         <v>5201</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M41" s="7">
         <v>17</v>
@@ -9966,13 +9963,13 @@
         <v>10940</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9993,22 +9990,22 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>

--- a/data/trans_orig/P56S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56S2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA939C0C-3C59-401F-90EC-76DE4DB61E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FFF79A-273F-4FFC-8FE5-066FD9E06029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{610F9D71-C6FC-44E9-8E6B-F9678FBFB562}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB862C70-54A8-4B70-8BCF-FC3074FC0868}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="382">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,06%)</t>
   </si>
@@ -161,13 +161,13 @@
     <t>3,91%</t>
   </si>
   <si>
-    <t>19,89%</t>
+    <t>20,02%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>16,67%</t>
+    <t>15,98%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -179,265 +179,268 @@
     <t>33,5%</t>
   </si>
   <si>
-    <t>73,25%</t>
+    <t>83,41%</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>81,97%</t>
+    <t>83,13%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>18,84%</t>
+    <t>18,66%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>12,33%</t>
+    <t>12,44%</t>
   </si>
   <si>
     <t>34,17%</t>
   </si>
   <si>
-    <t>83,35%</t>
+    <t>68,7%</t>
   </si>
   <si>
     <t>24,84%</t>
   </si>
   <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
+    <t>44,55%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>12,86%</t>
+    <t>13,19%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>18,45%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2015 (Tasa respuesta: 0,3%)</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2016 (Tasa respuesta: 0,3%)</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>42,49%</t>
+    <t>43,81%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>47,69%</t>
+    <t>43,99%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>34,31%</t>
+    <t>32,65%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -446,88 +449,88 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>57,89%</t>
+    <t>55,75%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
   </si>
   <si>
     <t>28,78%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>55,44%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>36,65%</t>
+    <t>33,32%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>42,27%</t>
+    <t>47,84%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>26,46%</t>
+    <t>36,14%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>58,78%</t>
+    <t>59,02%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>71,76%</t>
+    <t>66,05%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>54,23%</t>
@@ -539,13 +542,10 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -557,73 +557,73 @@
     <t>36,86%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>49,0%</t>
+    <t>46,63%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>33,81%</t>
+    <t>32,18%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>37,65%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>25,15%</t>
+    <t>27,71%</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>68,25%</t>
+    <t>60,51%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
@@ -1149,9 +1149,6 @@
   </si>
   <si>
     <t>37,98%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
   </si>
   <si>
     <t>24,09%</t>
@@ -1599,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4965C852-E20C-43D2-A933-7936561D6718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1046F16E-3B3F-49AE-9686-27D835B219E5}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3658,7 +3655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F5452A-99B6-4020-BCB0-F31E7C5E6E48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D0F094-80FB-4912-B888-08B85BD9CE95}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5655,13 +5652,13 @@
         <v>1035</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -5685,13 +5682,13 @@
         <v>1035</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5718,13 @@
         <v>1109</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -5736,13 +5733,13 @@
         <v>1109</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,7 +5814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD05B7E-3F06-404F-B9A0-6CFBF72159EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E54D9CA-4064-4EF9-BEB9-A81466411DA2}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5834,7 +5831,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5941,13 +5938,13 @@
         <v>791</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5956,13 +5953,13 @@
         <v>1205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5971,13 +5968,13 @@
         <v>1997</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,7 +6076,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6091,13 @@
         <v>1646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6109,13 +6106,13 @@
         <v>4148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -6124,13 +6121,13 @@
         <v>5794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6157,13 @@
         <v>2438</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -6175,13 +6172,13 @@
         <v>2438</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6208,13 @@
         <v>1213</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6226,13 +6223,13 @@
         <v>1213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6244,13 @@
         <v>1868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6262,13 +6259,13 @@
         <v>3302</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -6277,13 +6274,13 @@
         <v>5170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6295,13 @@
         <v>3521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6328,13 +6325,13 @@
         <v>3521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,7 +6382,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,7 +6610,7 @@
         <v>1211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -6628,7 +6625,7 @@
         <v>1211</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
@@ -6809,7 +6806,7 @@
         <v>1022</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
@@ -6824,7 +6821,7 @@
         <v>1022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -7397,13 +7394,13 @@
         <v>791</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7412,13 +7409,13 @@
         <v>1205</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7427,7 +7424,7 @@
         <v>1996</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
@@ -7550,13 +7547,13 @@
         <v>1646</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -7703,13 +7700,13 @@
         <v>1868</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -7754,13 +7751,13 @@
         <v>3521</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -7916,7 +7913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36F964F-0555-4708-8D1C-329F11F47270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEFE27B-ECBE-4F83-8397-EF4DBD4FADE1}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9900,7 +9897,7 @@
         <v>103</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>315</v>
@@ -9912,13 +9909,13 @@
         <v>38262</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9933,13 +9930,13 @@
         <v>5739</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -9954,7 +9951,7 @@
         <v>341</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M41" s="7">
         <v>17</v>
@@ -9963,13 +9960,13 @@
         <v>10940</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9990,22 +9987,22 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
